--- a/data/CDAN.xlsx
+++ b/data/CDAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23011\Desktop\upload_github\Heterogeneous-Transfer-Learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A90290-CB7E-4327-89E4-198EC271B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B712A-88FD-4C7E-8577-E9F88298B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DE5DF-21AC-440B-854A-097AEABADE9C}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -594,37 +594,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="5">
-        <v>65.19444</v>
+        <v>65.194000000000003</v>
       </c>
       <c r="C2" s="5">
-        <v>56.617649999999998</v>
+        <v>56.618000000000002</v>
       </c>
       <c r="D2" s="5">
-        <v>58.361109999999996</v>
+        <v>58.360999999999997</v>
       </c>
       <c r="E2" s="5">
-        <v>85.83784</v>
+        <v>85.837999999999994</v>
       </c>
       <c r="F2" s="5">
-        <v>75.16216</v>
+        <v>75.162000000000006</v>
       </c>
       <c r="G2" s="5">
-        <v>73.277780000000007</v>
+        <v>73.278000000000006</v>
       </c>
       <c r="H2" s="5">
-        <v>69.527780000000007</v>
+        <v>69.528000000000006</v>
       </c>
       <c r="I2" s="5">
-        <v>75.078950000000006</v>
+        <v>75.078999999999994</v>
       </c>
       <c r="J2" s="5">
-        <v>71.111109999999996</v>
+        <v>71.111000000000004</v>
       </c>
       <c r="K2" s="8">
-        <v>70.01876</v>
+        <v>70.019000000000005</v>
       </c>
       <c r="L2" s="5">
-        <v>0.33206000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,37 +632,37 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>68.031199999999998</v>
+        <v>68.031000000000006</v>
       </c>
       <c r="C3" s="5">
-        <v>57.432130000000001</v>
+        <v>57.432000000000002</v>
       </c>
       <c r="D3" s="5">
-        <v>58.415050000000001</v>
+        <v>58.414999999999999</v>
       </c>
       <c r="E3" s="5">
-        <v>85.974919999999997</v>
+        <v>85.974999999999994</v>
       </c>
       <c r="F3" s="5">
-        <v>79.913920000000005</v>
+        <v>79.914000000000001</v>
       </c>
       <c r="G3" s="5">
-        <v>74.236199999999997</v>
+        <v>74.236000000000004</v>
       </c>
       <c r="H3" s="5">
-        <v>69.066760000000002</v>
+        <v>69.066999999999993</v>
       </c>
       <c r="I3" s="5">
-        <v>76.125600000000006</v>
+        <v>76.126000000000005</v>
       </c>
       <c r="J3" s="5">
-        <v>71.572419999999994</v>
+        <v>71.572000000000003</v>
       </c>
       <c r="K3" s="8">
-        <v>71.196470000000005</v>
+        <v>71.195999999999998</v>
       </c>
       <c r="L3" s="5">
-        <v>0.49409999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -671,37 +671,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>57.55556</v>
+        <v>57.555999999999997</v>
       </c>
       <c r="C4" s="5">
-        <v>51.294119999999999</v>
+        <v>51.293999999999997</v>
       </c>
       <c r="D4" s="5">
         <v>58</v>
       </c>
       <c r="E4" s="5">
-        <v>85.729730000000004</v>
+        <v>85.73</v>
       </c>
       <c r="F4" s="5">
-        <v>67.513509999999997</v>
+        <v>67.513999999999996</v>
       </c>
       <c r="G4" s="5">
         <v>71.5</v>
       </c>
       <c r="H4" s="5">
-        <v>70.888890000000004</v>
+        <v>70.888999999999996</v>
       </c>
       <c r="I4" s="5">
-        <v>73.263159999999999</v>
+        <v>73.263000000000005</v>
       </c>
       <c r="J4" s="5">
-        <v>70.111109999999996</v>
+        <v>70.111000000000004</v>
       </c>
       <c r="K4" s="8">
-        <v>67.317340000000002</v>
+        <v>67.316999999999993</v>
       </c>
       <c r="L4" s="5">
-        <v>1.42476</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,37 +709,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>62.305329999999998</v>
+        <v>62.305</v>
       </c>
       <c r="C5" s="5">
-        <v>54.146320000000003</v>
+        <v>54.146000000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>58.159860000000002</v>
+        <v>58.16</v>
       </c>
       <c r="E5" s="5">
-        <v>85.820580000000007</v>
+        <v>85.820999999999998</v>
       </c>
       <c r="F5" s="5">
-        <v>73.070849999999993</v>
+        <v>73.070999999999998</v>
       </c>
       <c r="G5" s="5">
-        <v>72.781189999999995</v>
+        <v>72.781000000000006</v>
       </c>
       <c r="H5" s="5">
-        <v>69.913929999999993</v>
+        <v>69.914000000000001</v>
       </c>
       <c r="I5" s="5">
-        <v>74.605400000000003</v>
+        <v>74.605000000000004</v>
       </c>
       <c r="J5" s="5">
-        <v>70.785399999999996</v>
+        <v>70.784999999999997</v>
       </c>
       <c r="K5" s="8">
-        <v>69.065430000000006</v>
+        <v>69.064999999999998</v>
       </c>
       <c r="L5" s="5">
-        <v>0.65971999999999997</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
